--- a/Groups.xlsx
+++ b/Groups.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/tzjn72_durham_ac_uk/Documents/Exec/VP Development/College Families/parents-evening/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howel\OneDrive - Durham University\Exec\VP Development\College Families\parents-evening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4BD29F37-CCD7-4C97-9466-95F4DE1209D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:40009_{4BD29F37-CCD7-4C97-9466-95F4DE1209D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD0EA6C7-6E8F-46AE-A990-628103DB3FA0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
     <sheet name="People" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1295,7 +1303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1834,20 +1842,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H102" totalsRowShown="0">
-  <autoFilter ref="A1:H102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H102" totalsRowShown="0">
+  <autoFilter ref="A1:H102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H102">
-    <sortCondition ref="A1:A102"/>
+    <sortCondition ref="D1:D102"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Group ID"/>
-    <tableColumn id="2" name="Group Creator"/>
-    <tableColumn id="3" name="Friday Can"/>
-    <tableColumn id="4" name="Saturday Can"/>
-    <tableColumn id="5" name="Friday Want"/>
-    <tableColumn id="6" name="Saturday Want"/>
-    <tableColumn id="7" name="Friday"/>
-    <tableColumn id="8" name="Saturday"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Group ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group Creator"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Friday Can"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Saturday Can"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Friday Want"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Saturday Want"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Friday"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Saturday"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2149,11 +2157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,6 +2172,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,39 +2203,39 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>5239</v>
+        <v>4126</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>4532</v>
+        <v>4655</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2240,102 +2249,102 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>5164</v>
+        <v>4907</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>4981</v>
+        <v>4886</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>4888</v>
+        <v>5284</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>4926</v>
+        <v>5432</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>4126</v>
+        <v>5122</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2355,10 +2364,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>4789</v>
+        <v>5169</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2367,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2378,39 +2387,39 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>3455</v>
+        <v>5246</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>4436</v>
+        <v>5312</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2424,79 +2433,79 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>5087</v>
+        <v>5120</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B13">
-        <v>4952</v>
+        <v>4792</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B14">
-        <v>5424</v>
+        <v>3648</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>4655</v>
+        <v>5061</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2516,10 +2525,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>4907</v>
+        <v>4424</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2539,39 +2548,39 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>5003</v>
+        <v>5191</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B18">
-        <v>5505</v>
+        <v>3532</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2585,102 +2594,102 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B19">
-        <v>4825</v>
+        <v>4516</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B20">
-        <v>5155</v>
+        <v>4971</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B21">
-        <v>3373</v>
+        <v>5030</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B22">
-        <v>4617</v>
+        <v>3485</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B23">
-        <v>4886</v>
+        <v>3510</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2700,56 +2709,59 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B24">
-        <v>5417</v>
+        <v>5393</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B25">
-        <v>5363</v>
+        <v>4634</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>4157</v>
+        <v>4789</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2760,19 +2772,19 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>4731</v>
+        <v>5239</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2789,33 +2801,33 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>5284</v>
+        <v>5164</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>5520</v>
+        <v>4981</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2835,59 +2847,59 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>5351</v>
+        <v>4888</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>5432</v>
+        <v>4926</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>5309</v>
+        <v>3455</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2904,33 +2916,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>6330</v>
+        <v>5087</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>4548</v>
+        <v>4952</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2950,33 +2962,33 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>5385</v>
+        <v>5424</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>4168</v>
+        <v>5003</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2996,33 +3008,36 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>4662</v>
+        <v>4825</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>4828</v>
+        <v>5155</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3039,13 +3054,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>3451</v>
+        <v>3373</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3062,13 +3077,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>4311</v>
+        <v>4617</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3085,13 +3100,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>4309</v>
+        <v>5363</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3108,13 +3123,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>4429</v>
+        <v>4157</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3131,13 +3146,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>4630</v>
+        <v>4731</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3154,13 +3169,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>4570</v>
+        <v>5520</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3177,13 +3192,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>5368</v>
+        <v>5309</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3200,10 +3215,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>5282</v>
+        <v>4548</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3223,10 +3238,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>4515</v>
+        <v>4168</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3246,36 +3261,36 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>5122</v>
+        <v>4828</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B49">
-        <v>4540</v>
+        <v>3451</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3292,36 +3307,36 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B50">
-        <v>5169</v>
+        <v>4311</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B51">
-        <v>4573</v>
+        <v>4309</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3338,56 +3353,56 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B52">
-        <v>5246</v>
+        <v>4429</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B53">
-        <v>5312</v>
+        <v>4630</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B54">
-        <v>4408</v>
+        <v>4570</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3396,21 +3411,21 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B55">
-        <v>4154</v>
+        <v>5368</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3430,79 +3445,79 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>5120</v>
+        <v>5282</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>4792</v>
+        <v>4515</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>3648</v>
+        <v>4540</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>4884</v>
+        <v>4573</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3511,18 +3526,21 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>4609</v>
+        <v>4154</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3542,10 +3560,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>4932</v>
+        <v>4609</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3565,33 +3583,33 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>5061</v>
+        <v>4932</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>4879</v>
+        <v>3390</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3600,24 +3618,24 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>3390</v>
+        <v>5078</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3634,10 +3652,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>5078</v>
+        <v>5326</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3657,10 +3675,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>5326</v>
+        <v>5089</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3680,33 +3698,36 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>4253</v>
+        <v>4819</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>5089</v>
+        <v>4728</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3723,10 +3744,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>4819</v>
+        <v>4144</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3746,13 +3767,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>4728</v>
+        <v>4322</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3769,148 +3790,148 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>4424</v>
+        <v>4201</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>5191</v>
+        <v>4301</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>3532</v>
+        <v>4951</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B74">
-        <v>5152</v>
+        <v>4465</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B75">
-        <v>4516</v>
+        <v>4690</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B76">
-        <v>4971</v>
+        <v>4462</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B77">
-        <v>4144</v>
+        <v>4798</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3930,10 +3951,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B78">
-        <v>4322</v>
+        <v>5296</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3953,33 +3974,33 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B79">
-        <v>4557</v>
+        <v>5047</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B80">
-        <v>4201</v>
+        <v>4950</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3999,10 +4020,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B81">
-        <v>4301</v>
+        <v>4602</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4022,10 +4043,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B82">
-        <v>4951</v>
+        <v>4902</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4045,10 +4066,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B83">
-        <v>4209</v>
+        <v>5256</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4057,21 +4078,21 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B84">
-        <v>4465</v>
+        <v>5443</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4091,13 +4112,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B85">
-        <v>4690</v>
+        <v>6082</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4114,33 +4135,33 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>4462</v>
+        <v>4532</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>5131</v>
+        <v>4436</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4160,85 +4181,82 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>4798</v>
+        <v>5505</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="G88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B89">
-        <v>5296</v>
+        <v>5417</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="H89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>5047</v>
+        <v>5351</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B91">
-        <v>5030</v>
+        <v>6330</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4252,108 +4270,102 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="B92">
-        <v>4950</v>
+        <v>5385</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="G92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B93">
-        <v>3485</v>
+        <v>4662</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B94">
-        <v>4602</v>
+        <v>4408</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="G94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B95">
-        <v>3510</v>
+        <v>4884</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B96">
-        <v>5393</v>
+        <v>4879</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4365,141 +4377,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B97">
-        <v>4902</v>
+        <v>4253</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
+        <v>76</v>
+      </c>
+      <c r="B98">
+        <v>5152</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>4557</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>85</v>
+      </c>
+      <c r="B100">
+        <v>4209</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>89</v>
+      </c>
+      <c r="B101">
+        <v>5131</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B98">
+      <c r="B102">
         <v>4317</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>102</v>
-      </c>
-      <c r="B99">
-        <v>5256</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>103</v>
-      </c>
-      <c r="B100">
-        <v>5443</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>104</v>
-      </c>
-      <c r="B101">
-        <v>4634</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>105</v>
-      </c>
-      <c r="B102">
-        <v>6082</v>
-      </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="G102">
         <v>1</v>
       </c>
     </row>
@@ -4512,7 +4521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13617,6 +13626,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088B24059982B7945A9BAD39890D9C0D0" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d01850cec961176ad7bd7f4379973854">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="da1a0201-6e43-472f-b373-5c09342b7738" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46bca0286a2ba0f6e806c2d49a932bb3" ns3:_="">
     <xsd:import namespace="da1a0201-6e43-472f-b373-5c09342b7738"/>
@@ -13786,22 +13810,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDE8BE0-678B-4B23-A6C5-DBCCB1326FBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="da1a0201-6e43-472f-b373-5c09342b7738"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CC63D68-BACE-4522-B30C-331E5AD650FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BA801D-93D7-43D4-AE76-61A60C8D92C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13817,28 +13850,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CC63D68-BACE-4522-B30C-331E5AD650FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDE8BE0-678B-4B23-A6C5-DBCCB1326FBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="da1a0201-6e43-472f-b373-5c09342b7738"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>